--- a/templates/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes.xlsx
+++ b/templates/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Automation_1Updated\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8FD51-A0B1-4BD7-BF9E-279CD49CE488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBAB41-B935-46BB-AAF1-6437D7E0255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOHeader" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>AC5501_CUSTOMER (AC5501_CUSTOMER)</t>
-  </si>
-  <si>
     <t>Product Type</t>
   </si>
   <si>
@@ -87,18 +84,6 @@
     <t>ItemNumber_ExcludeICItemDescriptionFromNumber</t>
   </si>
   <si>
-    <t>D1-AC</t>
-  </si>
-  <si>
-    <t>AC5501_CUSTOMER</t>
-  </si>
-  <si>
-    <t>D1-AC Home Project</t>
-  </si>
-  <si>
-    <t>5501-14</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>Item Number</t>
-  </si>
-  <si>
     <t>5501-1 (Lot-Purchased)</t>
   </si>
   <si>
@@ -159,18 +141,6 @@
     <t>Misc-10 (Misc)</t>
   </si>
   <si>
-    <t>5501-1</t>
-  </si>
-  <si>
-    <t>5501-101</t>
-  </si>
-  <si>
-    <t>Service-10</t>
-  </si>
-  <si>
-    <t>Misc-10</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -186,21 +156,9 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>5501-16</t>
-  </si>
-  <si>
-    <t>5501-16 (Mfd)</t>
-  </si>
-  <si>
     <t>ProductDescription</t>
   </si>
   <si>
-    <t>Lot-Purchased</t>
-  </si>
-  <si>
-    <t>Purchased-SerialYesLotYes</t>
-  </si>
-  <si>
     <t>Kit</t>
   </si>
   <si>
@@ -211,13 +169,79 @@
   </si>
   <si>
     <t>IsProductType_Stock_OR_Configured</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>Process Quantity</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVOUA4</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVT</t>
+  </si>
+  <si>
+    <t>a1E1K000009KCVn</t>
+  </si>
+  <si>
+    <t>Automation5501-1</t>
+  </si>
+  <si>
+    <t>Automation5501-2</t>
+  </si>
+  <si>
+    <t>Automation5501-3</t>
+  </si>
+  <si>
+    <t>Automation5501-1 (Stock-Mfg-LotYesSerialYes)</t>
+  </si>
+  <si>
+    <t>Automation5501-2 (Mfg-LotYes)</t>
+  </si>
+  <si>
+    <t>Automation5501-3 (Kit)</t>
+  </si>
+  <si>
+    <t>100 Home Project</t>
+  </si>
+  <si>
+    <t>Stock-Mfg-LotYesSerialYes</t>
+  </si>
+  <si>
+    <t>Mfg-LotYes</t>
+  </si>
+  <si>
+    <t>Automation5501-4</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Automation5501-5</t>
+  </si>
+  <si>
+    <t>Automation5501-4 (Service)</t>
+  </si>
+  <si>
+    <t>Automation5501-5 (Misc)</t>
+  </si>
+  <si>
+    <t>Cust-Dollar WF1 (8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +269,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -277,6 +307,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +606,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -585,22 +616,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -610,10 +677,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05841922-5CA9-4E9D-9896-820CAEB10CB7}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,30 +696,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -659,7 +727,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -673,7 +741,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -687,10 +755,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -701,10 +769,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -735,38 +803,38 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -780,26 +848,33 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,13 +885,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,14 +901,14 @@
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
+      <c r="C3" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,14 +918,14 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -863,77 +938,84 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -945,152 +1027,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
+      <c r="G5" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
